--- a/server/ThePrint.xlsx
+++ b/server/ThePrint.xlsx
@@ -28,208 +28,239 @@
     <t>URL</t>
   </si>
   <si>
-    <t>INDIA bloc hits rough weather in Bengal, Kerala &amp; Tripura, CPI(M) refuses to join poll strategy panel</t>
-  </si>
-  <si>
-    <t>New Delhi: In developments that reflect strains on the opposition unity, the CPI(M) has decided to maintain distance from a key election strategy group of the INDIA bloc, while the Congress’s Tripura unit has expressed its unwillingness to tie up with the Left parties in any future election in the state.</t>
+    <t>Delhi Police FIR on NewsClick alleges bid to ‘sabotage’ 2019 polls, project Arunachal as ‘disputed’</t>
+  </si>
+  <si>
+    <t>New Delhi: In its FIR filed in the NewsClick case on 17 August under the stringent Unlawful Activities (Prevention) Act, for alleged receipt of funds from China, the Delhi Police Special Cell has claimed it had received “secret inputs” that the news portal received “foreign funds in crores” to “disrupt sovereignty and territorial integrity of India”.
+ThePrint has seen a copy of the FIR, which names NewsClick editor-in-chief Prabir Purkayastha, Shanghai-based American businessman Neville Roy Singham and activist Gautam Navlakha, as the accused. Navlakha is also an accused in the 2018 Bhima Koregaon violence case.
+The latest FIR against NewsClick has been filed under sections 13 (unlawful activities), 16 (terrorist act), 17 (raising funds for terrorist acts), 18 (conspiracy) and 22 (C) (offences by companies) of the UAPA, as well as sections 153 A (promoting enmity between different groups on grounds of religion, race, place of birth, residence, language, etc., and doing acts prejudicial to maintenance of harmony) and 120B (criminal conspiracy).
+“It is stated that secret inputs have been received that foreign funds in crores have been infused illegally in India by Indian and Foreign entities inimical to India in pursuance of conspiracy with the intention to disrupt sovereignty and territorial integrity of India, to cause disaffection against India and to threaten the unity, integrity, security of India,” claims the FIR.The FIR also claims that Roy Singham, “an active member of the propaganda department of the Communist Party of China” has been infusing funds through PPK NewsClick Pvt Ltd, run by Purkayastha and Navalakha — and Amit Sengupta, Doraeeswami Raghunanandan, Bappaditya Sinha, referred to in the FIR as NewsClick shareholders/partners — to “threaten the unity, integrity and security of India”.
+The FIR also claimed that funds infused into NewsClick were distributed to journalists Abhisar Sharma, Urmilesh (identified by a single name only), Paranjoy Guha Thakurta, Trina Shankar and Aratrika Halder, among others. The FIR went on to claim that these journalists were associates of civil rights activist Teesta Setalvad. The ED is reportedly probing fund transfers amounting to approximately Rs 40 lakh from NewsClick to Teesta Setalvad’s family.
+NewsClick in a statement Wednesday denied allegations of “Chinese propaganda”. It also said, “NewsClick has been targeted by a series of actions by various agencies of the Government of India since 2021… Yet, in the last two plus years, the Enforcement Directorate has not been able to file a complaint accusing NewsClick of money laundering. The Economic Offences Wing of Delhi Police has not been able to file a charge sheet against NewsClick for offences under the Indian Penal Code. The Income Tax Department has not been able to defend its actions before the Courts of law.”
+The Delhi Police served a copy of the FIR to the portal on Friday, a day after a city court directed it to do so.Delhi Police teams Tuesday raided at least 30 locations across Delhi, Noida, Ghaziabad and Mumbai, according to police sources, in connection to the case. Raids were carried out at the Mumbai house of Setalvad and the office of Sabrang India, of which Setalvad is the editor, the sources added.
+The police Tuesday also arrested Purkayastha and NewsClick human resources head Amit Chakravarty and sealed the office of the news portal at Delhi’s Sainik Farm, registered in the name of PPK NewsClick Studio Pvt. Ltd. On Thursday, The two were remanded in police custody for seven days.
+Delhi High Court Friday also sought police response to pleas filed by Purkayastha and Chakravarty challenging their arrest and seeking interim release till the pendency of the petitions.
+NewsClick has already been under the scanner of the Economic Offences Wing (EOW) and the Enforcement Directorate (ED) for allegedly receiving funds from China, routed through the United States. The news portal had also faced an income tax raid in 2021.The investigators have also claimed that NewsClick’s “China link” was established by its association with Roy Singham, described in the agency’s documents as a “close confidant” of editor-in-chief Prabir Purkayastha and a contact person of the Communist Party of China (CPC).
+A New York Times investigation report in August this year, claimed that the news portal had been incorporating “Chinese government talking points” into its coverage.
+The FIR registered by Delhi Police in August claims Purkayastha, Roy Singham and some other employees of his Chinese-based company, StarStream, exchanged emails which “expose” and establish their attempts to create a narrative that both Kashmir and Arunachal Pradesh were “disputed territories”.
+The FIR also accuses those named in the FIR of conspiring to “disrupt supplies and services” necessary for people in India, funding the farmers’ protests of 2020-21 (against three controversial farm laws brought in by the Narendra Modi government which have now been repealed), discrediting the Indian government’s efforts at containing the Covid pandemic and trying to sabotage the general elections of 2019.Responses from those accused/named in the FIR are awaited. ThePrint will update the article once responses are received.
+Also read: ‘Journalism can’t be prosecuted as terrorism’ — media groups write to CJI on NewsClick raids
+According to the FIR, Navlakha and Purkyastha have known each other since 1991, when they together incorporated a company named Sagarik Process Analyst Pvt. Ltd., and the former has been a shareholder in NewsClick since its inception in 2018.
+The FIR also alleges that Navlakha has been involved in “anti-India activities”, such as “supporting banned Naxal organisations” and Ghulam Nabi Fai, a Kashmiri separatist who had been convicted in the US for being a “paid operative” of Pakistan’s Inter-Services Intelligence (ISI).“Further, it is learnt that Gautam Navlakha who is a shareholder in PPK NewsClick Studio Pvt Ltd since its inception in the year 2018, remained involved in anti-Indian and unlawful activities, such as actively supporting banned Naxal organisations and having anti-national nexus with Gulam Nabi Fai who is an agent of ISI of Pakistan. It is also learnt that Gautam Navlakha is associated with Prabir Purkayastha since 1991 when they incorporated Sagrik Process Analyst Pvt Ltd,” the FIR alleges.
+The FIR goes on claim that there was an establishment of “mutually beneficial nexus” between Indian companies and “inimical” foreign establishments and that these establishments “backed, funded and supported” the farmers’ agitation of 2020-21, which “contributed to the loss of hundreds of crores rupees to the Indian economy” and also disrupted law and order in the country.
+The FIR also alleges that both Purkayastha and Roy Singham, along with another accused identified in the FIR as Vijay Parshad, have been involved in discrediting the efforts of the Indian government in containing the Covid-19 pandemic.
+Purkhayasta has also been accused of trying to sabotage the 2019 parliamentary elections, in partnership with the group People’s Alliance for Democracy and Secularism (PADS). Details of how they tried to allegedly do this are not mentioned in the FIR.The FIR also claims that companies of Chinese origin — Xiaomi and Vivo — incorporated shell companies in India by violating the rules and provisions of Foreign Exchange Management Act (FEMA) and Prevention of Money Laundering Act, 2002 (PMLA) and furthered the conspiracy of running false narratives against India.
+But Purkayastha, Roy Singham, activist Geeta Hariharan, and lawyer Gautam Bhatia, “hatched a conspiracy” to put up a spirited legal fight against cases filed against these companies. Bhatia has been named as a “key person” in this.
+“That Prabir Purkayastha, Neville Roy Singham, Gautam Navlakha, and their known and unknown associates have been involved in continuous unlawful activities which include undermining India’s unity, sovereignty, and territorial integrity. That aforementioned accused have conspired to commit unlawful activities and terrorist acts by aiding and abetting disruption of supplies and services essential for life of community and continued damage and destruction of property through illegal means,” states the FIR.
+It adds: “By inciting disaffection among the people especially farmers towards the democratically elected Govt of India they have been creating divisions and disharmony among different group/classes of people as a part of a larger criminal conspiracy having international ramifications. The accused have employed a web of illegal transactions through illegal and circuitous route using several companies etc. to illegally infuse foreign funds for perpetrating aforementioned acts through conspiracy.”(Edited by Poulomi Banerjee)
+Also read: Headlines say it all—NewsClick coverage shows a deeply divided Indian media</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/delhi-police-fir-on-newsclick-alleges-bid-to-sabotage-2019-polls-project-arunachal-as-disputed/1792730/</t>
+  </si>
+  <si>
+    <t>In Churachandpur, anger at CBI over Manipur teen deaths arrests. ‘No one told us’, says suspect’s family</t>
+  </si>
+  <si>
+    <t>Churachandpur, Manipur: Akhup Hao got a frantic phone call Sunday afternoon from his daughter. His son S. Malsawm Haokip, 31, was picked up by the Central Bureau of Investigation (CBI) when he was on way to Churachandpur to meet him.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/in-churachandpur-anger-at-cbi-over-manipur-teen-deaths-arrests-no-one-told-us-says-suspects-family/1777211/</t>
+  </si>
+  <si>
+    <t>NewsClick FIR says Chinese phone-makers set up ‘thousands of shell companies in India to funnel funds’</t>
+  </si>
+  <si>
+    <t>New Delhi: The FIR filed by Delhi Police in the NewsClick case has alleged that “big Chinese telecom companies” like Xiaomi and Vivo have incorporated thousands of shell companies in India to illegally infuse foreign funds to be used in disrupting the sovereignty of India and causing disaffection against the nation.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/newsclick-fir-says-chinese-phone-makers-set-up-thousands-of-shell-companies-in-india-to-funnel-funds/1792881/</t>
+  </si>
+  <si>
+    <t>73% Muslims in Bihar ‘backward’ — state survey sparks debate on caste in Islam, BJP alleges ‘appeasement’</t>
+  </si>
+  <si>
+    <t>New Delhi: The Bihar caste survey released Monday shows that nearly 73 percent of the state’s Muslim population is classified as “backward classes”, or Pasmandas, making them eligible for the benefits of reservation. This has given fresh impetus to the ongoing debate on caste within Islam with former MP Ali Anwar saying it has “demolished the myth” that Muslim identity is a monolith.</t>
   </si>
   <si>
     <t>politics</t>
   </si>
   <si>
-    <t>https://theprint.in/politics/india-bloc-hits-rough-weather-in-bengal-kerala-tripura-cpim-refuses-to-join-poll-strategy-panel/1767439/</t>
-  </si>
-  <si>
-    <t>Hindutva activist Chaitra Kundapura under probe for more — ‘anti-Muslim’ rants, ‘insulting Tuluva heroes’</t>
-  </si>
-  <si>
-    <t>Bengaluru: While addressing a public gathering in Karnataka’s Surathkal in September 2021, hardline Hindutva activist and self-proclaimed Sangh leader Chaitra Kundapura said that if “Hindus start to convert Muslim girls, the entire process will just take two days until there will be no burqas left in these households”.</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/hindutva-activist-chaitra-kundapura-under-probe-for-more-anti-muslim-rants-insulting-tuluva-heroes/1767438/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Govt buried key information in footnotes, understated external debt by Rs 2 lakh crore, says CAG </t>
-  </si>
-  <si>
-    <t>New Delhi: The Government of India understated its external debt by as much as Rs 2 lakh crore in fiscal 2021-2022 — running afoul of its own laws — the Comptroller and Auditor General of India (CAG) has said in a report.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/governance/govt-buried-key-information-in-footnotes-understated-external-debt-by-rs-2-lakh-crore-says-cag/1767391/</t>
-  </si>
-  <si>
-    <t>Who decides Pakistan poll dates, president or poll panel? The latest in Pakistan election imbroglio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Delhi: There seems to be no end to the uncertainty over the dates for Pakistan’s next general election. </t>
-  </si>
-  <si>
-    <t>theprint-essential</t>
-  </si>
-  <si>
-    <t>https://theprint.in/theprint-essential/who-decides-pakistan-poll-dates-president-or-poll-panel-the-latest-in-pakistan-election-imbroglio/1766867/</t>
-  </si>
-  <si>
-    <t>Rajasthan BJP’s new rebel: Bent on fighting polls, 85-yr-old MLA slams minister Shekhawat for age barb</t>
-  </si>
-  <si>
-    <t>New Delhi: Six-time BJP MLA Suryakanta Vyas is now the latest ‘rebel’ veteran in Rajasthan to take on the party brass over poll tickets, as she reminded Union minister Gajendra Shekhawat of observing propriety given her decades-long stint in politics.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/politics/rajasthan-bjps-new-rebel-bent-on-fighting-polls-85-yr-old-mla-slams-minister-shekhawat-for-age-barb/1767237/</t>
-  </si>
-  <si>
-    <t>Justin Bieber is Pakistani brand’s new model. Karan Johar, Anil Kapoor too wear Rastah</t>
-  </si>
-  <si>
-    <t>New Delhi: Canadian singer Justin Bieber, Moroccan rapper French Montana and Bollywood stars Karan Johar and Anil Kapoor are united by Pakistan in their sartorial choices. The four of them have been seen out and around town (and even in a movie) wearing clothes designed by the Pakistani label Rastah—the brainchild of three cousins Zain, Ismail, and Adnan Ahmad from Lahore. Bieber is the latest to join the Rastah club.</t>
-  </si>
-  <si>
-    <t>go-to-pakistan</t>
-  </si>
-  <si>
-    <t>https://theprint.in/go-to-pakistan/justin-bieber-is-pakistani-brands-new-model-karan-johar-anil-kapoor-too-wear-rastah/1767417/</t>
-  </si>
-  <si>
-    <t>India must invest more in land forces—victory is measured in terms of territory gained or lost</t>
-  </si>
-  <si>
-    <t>In his book Sapiens, Yuval Noah Harari asserts that humans did not tame land; rather, it is the land that tamed and domesticated humankind. Once crops were sown, a community could no longer follow a nomadic lifestyle. It had to stay put, not only to grow and harvest the crop but also to protect it from marauding animals and rival tribes. Over the centuries, with more and more investments made in land – from huts to high-rises, roads to railways, farms to factories – it has become the centrepiece of all human endeavour. Once these communities developed a sense of identity and control over a geographical space, it also became necessary to defend not only the land, but also one’s identity as a tribe, kingdom or nation. Thus were sown the seeds of conflict, which persist to this day.</t>
+    <t>https://theprint.in/politics/73-muslims-in-bihar-backward-state-survey-sparks-debate-on-caste-in-islam-bjp-alleges-appeasement/1792254/</t>
+  </si>
+  <si>
+    <t>Putin praises Modi’s G20 ‘success’, backs India’s push for seat on UN Security Council</t>
+  </si>
+  <si>
+    <t>He also called India a country of great potential, with a large population, a projected GDP growth of over 7 percent, and growing high-tech exports.
+“As for the work of the G20, without any doubt that is the success of the Indian presidency and personally for PM Modi, that was a success. The Indian leadership was able to find…balance, including in the declaration,” said the Russian President while speaking at an event in Sochi, Russia.
+Putin was attending the 20th annual meeting of Moscow-based think tank Valdai International Discussion Club, on from 2 to 5 October. During his opening address at the event, Putin called India a country that acts independently on the global stage but faces risks from the West.
+“I would like to say that the Indian leadership is independent and strongly nationally oriented,” he said. “They (the West) try to portray those who are not willing to blindly follow these Western elite groups as enemies. They have used this approach with various countries, including China, and tried to do this to India in certain situations,” he added.His remarks came on the same day a Russian missile attack struck the village of Hroza in northeastern Ukraine, killing over 50 people.
+The event was attended by 140 experts, politicians and diplomats from 42 countries across Eurasia, Africa, North and South America.
+Also read: Did Garcetti tell team ‘may have to reduce contact with Indian officials’ amid Canada row? Embassy reacts
+While fielding questions from the audience during the event in Sochi, Putin was asked about India’s G20 Presidency and the joint declaration that followed after the G20 Summit in India. He added that PM Modi managed to “de-politicise” the decisions that were adopted at the G20 Summit.Asked about his absence at the BRICS Summit in South Africa and the G20 Summit in India, Putin said: “Why do I need to create some problems for friends during the organisation of these events? We are adults and we understand that if I come, some political campaigns will start which will be aimed at undermining the summit.”
+Last month, the Indian G20 Presidency announced the adoption of the New Delhi Leaders Declaration, despite tensions between the West and Russia over Ukraine.
+During the event, the Russian President also backed India’s push to get a seat on the UN Security Council and praised its economic growth.
+“Certainly, in the UN Security Council, such countries should be represented who are acquiring significant clout in international affairs. Due to their potential, they have an opportunity to contribute to resolving international issues,” he told the audience. “What countries am I talking about? India — 1.5 billion people. Over 7 percent GDP growth. High tech exports are growing exponentially. It is becoming stronger every year under the leadership of PM Modi,” he said.Also read: MEA says Afghan embassy’s closure ‘internal matter’, rejects claim of no diplomatic support from India</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>https://theprint.in/world/putin-praises-modis-g20-success-backs-indias-push-for-seat-on-un-security-council/1792577/</t>
+  </si>
+  <si>
+    <t>RBI keeps repo rate unchanged at 6.5%, has steady growth outlook amid inflationary pressures</t>
+  </si>
+  <si>
+    <t>New Delhi: The Reserve Bank of India’s (RBI) Monetary Policy Committee has decided to keep the benchmark interest rate or repo rate unchanged at 6.5 percent for the fourth consecutive time, RBI governor Shaktikanta Das announced Friday.</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>https://theprint.in/economy/rbi-keeps-repo-rate-unchanged-at-6-5-has-steady-growth-outlook-amid-inflationary-pressures/1792612/</t>
+  </si>
+  <si>
+    <t>Family courts aren’t safe for children. They need waiting rooms, counsellors &amp; Mickey Mouse</t>
+  </si>
+  <si>
+    <t>New Delhi: Six-year-old Rahul jumps off the wooden stairs leading to the judge’s dais. His sister Neha, who is five, stands on top of a wobbly bench. For four years, the family courtroom in Noida has been their personal playground every time their mother’s divorce case comes up for hearing. But without a children’s waiting room in the court, they make do with benches and stairs in place of toys while couples fight and lawyers bicker around them. Their playmates are police personnel, plaintiffs and judges.</t>
+  </si>
+  <si>
+    <t>ground-reports</t>
+  </si>
+  <si>
+    <t>https://theprint.in/ground-reports/family-courts-arent-safe-for-children-they-need-waiting-rooms-counsellors-mickey-mouse/1792516/</t>
+  </si>
+  <si>
+    <t>Bihar census identified the privileged and under-privileged castes. Go national now</t>
+  </si>
+  <si>
+    <t>If the proof of the kheer is in the eating, the first spoonful of caste data from Bihar “census” proves why we need a nationwide caste census. Driven by ‘upper caste’ anxiety over possible increase in reservation for the backward groups, the Indian media has focused on Bihar caste survey’s political motivation and fallout, rather than the data. But the very publication of the data is a fitting response to those who said such an exercise is not feasible.</t>
   </si>
   <si>
     <t>opinion</t>
   </si>
   <si>
-    <t>https://theprint.in/opinion/india-must-invest-more-in-land-forces-victory-is-measured-in-terms-of-territory-gained-or-lost/1765382/</t>
-  </si>
-  <si>
-    <t>Bhanwari Devi was raped for trying to stop 1992 child marriage. ‘I curse her daily,’ says bride</t>
-  </si>
-  <si>
-    <t>Jaipur: She sat on a jute cot in the verandah of her dilapidated house in Bhateri village in Rajasthan, gazing at the backyard, flooded in the rains. The peeling walls, the rusting windows, and the weather-beaten interior of her house mirror how Bhanwari Devi feels in her bones these days — like the autumn of an exhausted feminist.</t>
-  </si>
-  <si>
-    <t>ground-reports</t>
-  </si>
-  <si>
-    <t>https://theprint.in/ground-reports/bhanwari-devi-was-raped-for-trying-to-stop-1992-child-marriage-i-curse-her-daily-says-bride/1765956/</t>
-  </si>
-  <si>
-    <t>Kerala’s indie films are stuck in bureaucratic belly. No theatre fans or OTT buyers</t>
-  </si>
-  <si>
-    <t>All the critics raved about Shruthi Sharanyam’s debut Malayalam indie film B 32 Muthal 44 Vare on breast and body shaming. OTT platforms like Manorama Max and Sony Liv wanted to buy it. The movie ran for a week in theatres in January —and then it vanished. Now, B 32 Muthal 44 Vare languishes in the bureaucratic belly of the Kerala State Film Development Corporation, which produced the movie. It will not let Sharanyam sell it, either. The Kerala government wants to run the movie on its own OTT platform. Except that this streaming initiative has been in the making since 2016.</t>
-  </si>
-  <si>
-    <t>the-fineprint</t>
-  </si>
-  <si>
-    <t>https://theprint.in/the-fineprint/keralas-indie-films-are-stuck-in-bureaucratic-belly-no-theatre-fans-or-ott-buyers/1765086/</t>
-  </si>
-  <si>
-    <t>4 years on, Kashmir is changing. All because of Modi-picked Manoj Sinha’s healing touch</t>
-  </si>
-  <si>
-    <t>Pictures of Prime Minister Narendra Modi getting down from a petals-strewn vehicle to a grand welcome by his colleagues at the Bharatiya Janata Party (BJP) headquarters on 13 September triggered a social media firestorm. Users shared pictures and videos of the G20 success celebrations — along with those of grieving family members and colleagues of three Army and police officers killed by militants early that day at Kokernag in southern Kashmir’s Anantnag district. Modi’s fiery speeches against opposition parties from poll-bound Madhya Pradesh and Chhattisgarh gave his detractors more ammunition.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/politically-correct/4-years-on-kashmir-is-changing-all-because-of-modi-picked-manoj-sinhas-healing-touch/1766788/</t>
-  </si>
-  <si>
-    <t>Agra cop faces rape charges after alleged molestation of teen, thrashed by local villagers</t>
-  </si>
-  <si>
-    <t>Agra: An Agra cop is facing rape charges after he allegedly entered the house of a teenaged girl and molested her Sunday night.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/agra-cop-faces-rape-charges-after-alleged-molestation-of-teen-thrashed-by-local-villagers/1767232/</t>
-  </si>
-  <si>
-    <t>Murdered ex-Armyman’s 10-yr-old saw dad’s abduction in Manipur, gave chase: ‘I couldn’t do anything’</t>
-  </si>
-  <si>
-    <t>Imphal: In Imphal’s Tarung area, a 10-year-old stands guard at the window of his home, clutching a toy — a unicorn soft toy — gifted by his father. His vigilant gaze fixed on the gate, the boy seems to be waiting for someone. Each time a figure approaches, he eagerly calls out to his mother.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/murdered-ex-armymans-10-yr-old-saw-dads-abduction-in-manipur-gave-chase-i-couldnt-do-anything/1766899/</t>
-  </si>
-  <si>
-    <t>India’s first solar mission spacecraft  Aditya L-1 commences collecting scientific data, says ISRO</t>
-  </si>
-  <si>
-    <t>Bengaluru: India’s Aditya-L1 solar mission spacecraft has commenced collecting scientific data to help scientists analyse particles surrounding Earth, ISRO said on Monday.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/indias-aditya-l1-solar-mission-spacecraft-commences-collecting-scientific-data/1766808/</t>
-  </si>
-  <si>
-    <t>It took 40 yrs to find first traces of Ashoka’s Pataliputra. Now, we must find the rest</t>
-  </si>
-  <si>
-    <t>For centuries, the exact location and extent of the ancient city of Pataliputra remained a subject of debate. City after city was built on top of its ruins, but no one could pinpoint where it was. Even though Chinese travellers like Fa Hien heavily documented Pataliputra in their topographical records, it took a careful survey and multiple excavations to verify the gilded details mentioned in these texts.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/it-took-40-yrs-to-find-first-traces-of-ashokas-pataliputra-now-we-must-find-the-rest/1766398/</t>
-  </si>
-  <si>
-    <t>China’s third aircraft carrier is ready for the sea even as defence minister goes missing</t>
-  </si>
-  <si>
-    <t>Chinese Defence Minister Li Shangfu disappears, missing from military meetings, likely under investigation. China’s third aircraft carrier, Fujian, is now ready to enter service. Hong Kong wants residents – and visitors – to get out and party in a new campaign to promote nightlife in the city. Chinascope tracks everything that happened in the country this week – from the missing defence minister to Hong Kong’s quest for fun.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/chinascope/chinas-third-aircraft-carrier-is-ready-for-the-sea-even-as-defence-minister-goes-missing/1766419/</t>
-  </si>
-  <si>
-    <t>Maratha reservation protest isn’t just about quota. It will end dynasties</t>
-  </si>
-  <si>
-    <t>The Maharashtra government now finds itself walking a tightrope as the Maratha community, a significant portion of the Jalna constituency, holds the power to make or break the state’s political landscape. Glaring inequalities have ignited the flames of a formidable Maratha reservation movement.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/maratha-reservation-protest-isnt-just-about-quota-it-will-end-dynasties/1766577/</t>
-  </si>
-  <si>
-    <t>Drug shortage shows Modi’s TB eradication dream needs more than just ambition</t>
-  </si>
-  <si>
-    <t>On 23 August, we received phone calls from colleagues in Mumbai informing us that patients with Drug-Resistant Tuberculosis, or DR-TB, were inching closer to death because they hadn’t received their medication for nearly a month. This, unfortunately, is not a new development as TB drug shortages began last year with the stockout of Rifampicin – a medication used to treat drug-sensitive TB. Linezolid, Clofazimine, and Cycloserine are also facing the same shortages now.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/drug-shortage-shows-modis-tb-eradication-dream-needs-more-than-just-ambition/1765476/</t>
-  </si>
-  <si>
-    <t>Xi’s men are falling off the wall one by one. Even extreme loyalty doesn’t guarantee safety</t>
-  </si>
-  <si>
-    <t>The curtain fell in the old-fashioned way: The state-of-the-art Hawker Siddeley HS-121 Trident jet exploded in the great emptiness of outer Mongolia’s Öndörkhaan desert in 1971. Lin Biao, the revolution-era military hero and Marshal of the People’s Republic of China, who was on the flight with his wife Ye Qun and son Lin Liguo, was declared a traitor hours later. The old marshal, the People’s Republic of China alleged, had sought to flee after trying to assassinate Chairman Mao Zedong.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/xis-men-are-falling-off-the-wall-one-by-one-even-extreme-loyalty-doesnt-guarantee-safety/1765786/</t>
-  </si>
-  <si>
-    <t>Like Alia Bhatt’s ‘What Jhumka’, Chacha Chaudhary was actually a reboot by Diamond Comics</t>
-  </si>
-  <si>
-    <t>The latest blockbuster song What Jhumka from Karan Johar’s Rocky Aur Rani Ki Prem Kahani is a reboot of Jhumka Gira Re from the 1966 film Mera Saya. A blend of nostalgia and improvisation is what makes a remixed song a hit. It seems this formula doesn’t just work for music but also for comic series and cartoon strips. Take, for example, India’s most loved comic book characters, Chacha Chaudhary and Sabu. Created by pioneer cartoonist Pran Kumar Sharma, this feisty pair was first featured in 1971 in Lotpot, a bilingual children’s magazine. That was when a young Narendra Kumar Verma, current chairperson of Diamond Group of Publications, contacted  Pran and persuaded him to republish the series under a new packaging. Promoted through a 360-degree campaign on billboards, radio, and television, the new Chacha Chaudhary version soon became the first-ever Indian cartoon character that attained cult status.</t>
+    <t>https://theprint.in/opinion/bihar-census-identified-privileged-and-under-privileged-castes-go-national-now/1792241/</t>
+  </si>
+  <si>
+    <t>Deogarh dreams of next hockey star. No turf, no shoes but ‘every house has a player &amp; fan’</t>
+  </si>
+  <si>
+    <t>Deogarh: Sonia Kumari Topno has a dream. Hockey propelled her out of her impoverished village in Odisha’s Deogarh, and now she is sprinting towards her next goal: winning a spot on the Indian women’s team. She is confident because Deogarh hockey dreams have a way of coming true.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/ground-reports/deogarh-dreams-of-next-hockey-star-no-turf-no-shoes-but-every-house-has-a-player-fan/1790128/</t>
+  </si>
+  <si>
+    <t>Narges Mohammadi, jailed Iranian womens’ rights advocate, wins 2023 Nobel Peace Prize</t>
+  </si>
+  <si>
+    <t>Oslo: Narges Mohammadi, a jailed Iranian women’s rights advocate, won the 2023 Nobel Peace Prize on Friday.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/world/jailed-iranian-activist-narges-mohammadi-wins-2023-nobel-peace-prize/1792745/</t>
+  </si>
+  <si>
+    <t>‘False cases to weaken opposition, atmosphere of fear’: Kejriwal on raids by central agencies</t>
+  </si>
+  <si>
+    <t>New Delhi: False cases are being slapped in an attempt to subdue and threaten opposition leaders and parties, and an “atmosphere of fear” has been created, which is not good for the country, Delhi Chief Minister Arvind Kejriwal said here on Friday.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/false-cases-being-slapped-to-weaken-opposition-atmosphere-of-fear-created-kejriwal/1792633/</t>
+  </si>
+  <si>
+    <t>ASEAN statement see commitment to eventual elimination of crop burning</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur: Southeast Asian agriculture and forestry ministers have agreed to take collective action to minimise and eventually eliminate crop burning in the region, amid deteriorating air quality and concern about cross-border haze.</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>https://theprint.in/environment/southeast-asian-ministers-commit-to-eventual-elimination-of-crop-burning/1792267/</t>
+  </si>
+  <si>
+    <t>Death toll from Russia missile strike on Ukraine’s Hroza rises to 52</t>
+  </si>
+  <si>
+    <t>Kyiv: The death toll from a Russian missile strike on the village of Hroza in northeastern Ukraine rose to 52 on Friday after another victim died overnight in hospital, the regional governor said.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/world/death-toll-rises-to-52-after-russian-attack-on-ukrainian-village-of-hroza/1792638/</t>
+  </si>
+  <si>
+    <t>Indian students in Canada disenchanted, helpless. New Delhi must spread pre-migration awareness</t>
+  </si>
+  <si>
+    <t>For Indians studying in Canada, the ongoing diplomatic standoff between the two countries is just the latest chapter in a series of relentless challenges. Earlier this year, Canada reportedly threatened to deport around 700 Indian students, mostly from Punjab, over allegations that their admission letters were forged. Apart from being scapegoated for Canada’s housing crisis, Indian students have also been dealing with rising rental costs, homelessness, and reduced employment opportunities. As reports of extremism on Canadian soil mount, there are growing fears that tensions among international students and discrimination against Indian Canadians would also increase.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/indian-students-in-canada-disenchanted-helpless-new-delhi-must-spread-pre-migration-awareness/1792628/</t>
+  </si>
+  <si>
+    <t>Bihar caste survey has done Pasmanda Muslims a big favour. Now India must do the same</t>
+  </si>
+  <si>
+    <t>Nitish Kumar’s strategic release of caste survey in Bihar is a carefully orchestrated political overture. It’s almost like he’s tuning his political instrument months before the crucial assembly polls in Chhattisgarh, Madhya Pradesh, Rajasthan, and Telangana, not to mention the grand spectacle of 2024. The political guru, it seems, is collectively squinting at this move, trying to decipher its implications. It’s not just numbers on paper; the enumeration has a potential of narrative shift. As we watch this political drama unfold, it’s hard not to be intrigued by the nuances, the hidden agendas, and the unspoken alliances.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/bihar-caste-survey-has-done-pasmanda-muslims-a-big-favour-now-india-must-do-the-same/1792461/</t>
+  </si>
+  <si>
+    <t>What turned Teesta into a killer? Here’s proof Sikkim flash floods are a man-made disaster</t>
+  </si>
+  <si>
+    <t>If you are a climate change expert who knows all about the impact of hydroelectric projects in the mountains and elsewhere, then you already know what this is about. But those who know that dams in the Himalayas are a bad idea and that glaciers are melting but are gobsmacked by terms like ‘GLOF’ and other specifics, please read on. While the experts must weigh in, it is time also for common people to stand up and be counted in the fight to prevent what happened in Sikkim on the night of October 3-4, a disaster that is already in the eye of a storm – was it a natural calamity or man-made?</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/what-turned-teesta-into-a-killer-heres-proof-sikkim-flash-floods-are-a-man-made-disaster/1792214/</t>
+  </si>
+  <si>
+    <t>India needn’t recognise Taliban but it shouldn’t let China keep Afghanistan away from it either</t>
+  </si>
+  <si>
+    <t>The closure of the Afghanistan embassy in New Delhi comes at a time when significant changes are occurring in the region surrounding the Indian Ocean and the Indian part of the Indo-Pacific. The successful G20 summit, India’s acclaim from member countries, and the unanimous acceptance of the Delhi Declaration may have unsettled certain forces that are opposed to India’s growth and influence.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/india-neednt-recognise-taliban-but-it-shouldnt-let-china-keep-afghanistan-away-from-it-either/1792192/</t>
+  </si>
+  <si>
+    <t>India’s blood banks are a danger zone. Patients’ trust in them is questionable</t>
+  </si>
+  <si>
+    <t>India’s pharmaceutical prowess has come under fire with some cough syrups reportedly having unacceptable levels of toxic compounds and being linked to deaths of at least 89 children in Gambia and Uzbekistan. While an investigation into the deaths goes on, a glaring example of continuing harm caused by healthcare-related policies lies unaddressed in one of the most unassuming places: Blood banks.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/indias-blood-banks-are-a-danger-zone-patients-trust-in-them-is-questionable/1792191/</t>
+  </si>
+  <si>
+    <t>Bangladesh PM’s daughter adding political colour to WHO election. She has India on her side</t>
+  </si>
+  <si>
+    <t>South East Asia is replete with examples of dynasts—from politics and entertainment to business and judiciary. Sons and daughters, who have either outshone their parents or have been eclipsed by them, have always made headlines in this part of the world.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/bangladesh-pms-daughter-adding-political-colour-to-who-election-she-has-india-on-her-side/1791318/</t>
+  </si>
+  <si>
+    <t>Vishal Bhardwaj almost didn’t make Khufiya. Irrfan Khan scolded him for it</t>
+  </si>
+  <si>
+    <t>New Delhi: As the Pathans and Jawans of Bollywood storm the world, a slow-burn espionage has everyone on the edge of their seats in anticipation—Vishal Bhardwaj’s spy thriller, Khufiya. But instead of SRK saving India, it’s Tabu, as Research and Analysis Wing operative KM (Krishna Mehra), who is tasked with uncovering the truth and investigating a colleague.</t>
   </si>
   <si>
     <t>feature</t>
   </si>
   <si>
-    <t>https://theprint.in/feature/like-alia-bhatts-what-jhumka-chacha-chaudhary-was-actually-a-reboot-by-diamond-comics/1764541/</t>
-  </si>
-  <si>
-    <t>AIADMK breaks alliance with BJP, slams Annamalai — ‘Let’s see if they win more votes than NOTA’</t>
-  </si>
-  <si>
-    <t>Chennai: A simmering tension within the BJP-AIADMK leadership in Tamil Nadu came to the fore Monday, as senior leader D. Jayakumar announced breakup of the alliance and added that any decision would be made only before the next year’s election.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/politics/aiadmk-breaks-alliance-with-bjp-slams-annamalai-lets-see-if-they-win-more-votes-than-nota/1766979/</t>
+    <t>https://theprint.in/feature/around-town/vishal-bhardwaj-almost-didnt-make-khufiya-irrfan-khan-scolded-him-for-it/1790835/</t>
   </si>
 </sst>
 </file>
@@ -616,49 +647,49 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -714,49 +745,49 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -770,7 +801,7 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>49</v>
@@ -784,7 +815,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>52</v>
@@ -798,7 +829,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -812,7 +843,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>58</v>
@@ -826,7 +857,7 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>61</v>
@@ -840,7 +871,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
@@ -854,21 +885,21 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>71</v>

--- a/server/ThePrint.xlsx
+++ b/server/ThePrint.xlsx
@@ -28,239 +28,208 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Delhi Police FIR on NewsClick alleges bid to ‘sabotage’ 2019 polls, project Arunachal as ‘disputed’</t>
-  </si>
-  <si>
-    <t>New Delhi: In its FIR filed in the NewsClick case on 17 August under the stringent Unlawful Activities (Prevention) Act, for alleged receipt of funds from China, the Delhi Police Special Cell has claimed it had received “secret inputs” that the news portal received “foreign funds in crores” to “disrupt sovereignty and territorial integrity of India”.
-ThePrint has seen a copy of the FIR, which names NewsClick editor-in-chief Prabir Purkayastha, Shanghai-based American businessman Neville Roy Singham and activist Gautam Navlakha, as the accused. Navlakha is also an accused in the 2018 Bhima Koregaon violence case.
-The latest FIR against NewsClick has been filed under sections 13 (unlawful activities), 16 (terrorist act), 17 (raising funds for terrorist acts), 18 (conspiracy) and 22 (C) (offences by companies) of the UAPA, as well as sections 153 A (promoting enmity between different groups on grounds of religion, race, place of birth, residence, language, etc., and doing acts prejudicial to maintenance of harmony) and 120B (criminal conspiracy).
-“It is stated that secret inputs have been received that foreign funds in crores have been infused illegally in India by Indian and Foreign entities inimical to India in pursuance of conspiracy with the intention to disrupt sovereignty and territorial integrity of India, to cause disaffection against India and to threaten the unity, integrity, security of India,” claims the FIR.The FIR also claims that Roy Singham, “an active member of the propaganda department of the Communist Party of China” has been infusing funds through PPK NewsClick Pvt Ltd, run by Purkayastha and Navalakha — and Amit Sengupta, Doraeeswami Raghunanandan, Bappaditya Sinha, referred to in the FIR as NewsClick shareholders/partners — to “threaten the unity, integrity and security of India”.
-The FIR also claimed that funds infused into NewsClick were distributed to journalists Abhisar Sharma, Urmilesh (identified by a single name only), Paranjoy Guha Thakurta, Trina Shankar and Aratrika Halder, among others. The FIR went on to claim that these journalists were associates of civil rights activist Teesta Setalvad. The ED is reportedly probing fund transfers amounting to approximately Rs 40 lakh from NewsClick to Teesta Setalvad’s family.
-NewsClick in a statement Wednesday denied allegations of “Chinese propaganda”. It also said, “NewsClick has been targeted by a series of actions by various agencies of the Government of India since 2021… Yet, in the last two plus years, the Enforcement Directorate has not been able to file a complaint accusing NewsClick of money laundering. The Economic Offences Wing of Delhi Police has not been able to file a charge sheet against NewsClick for offences under the Indian Penal Code. The Income Tax Department has not been able to defend its actions before the Courts of law.”
-The Delhi Police served a copy of the FIR to the portal on Friday, a day after a city court directed it to do so.Delhi Police teams Tuesday raided at least 30 locations across Delhi, Noida, Ghaziabad and Mumbai, according to police sources, in connection to the case. Raids were carried out at the Mumbai house of Setalvad and the office of Sabrang India, of which Setalvad is the editor, the sources added.
-The police Tuesday also arrested Purkayastha and NewsClick human resources head Amit Chakravarty and sealed the office of the news portal at Delhi’s Sainik Farm, registered in the name of PPK NewsClick Studio Pvt. Ltd. On Thursday, The two were remanded in police custody for seven days.
-Delhi High Court Friday also sought police response to pleas filed by Purkayastha and Chakravarty challenging their arrest and seeking interim release till the pendency of the petitions.
-NewsClick has already been under the scanner of the Economic Offences Wing (EOW) and the Enforcement Directorate (ED) for allegedly receiving funds from China, routed through the United States. The news portal had also faced an income tax raid in 2021.The investigators have also claimed that NewsClick’s “China link” was established by its association with Roy Singham, described in the agency’s documents as a “close confidant” of editor-in-chief Prabir Purkayastha and a contact person of the Communist Party of China (CPC).
-A New York Times investigation report in August this year, claimed that the news portal had been incorporating “Chinese government talking points” into its coverage.
-The FIR registered by Delhi Police in August claims Purkayastha, Roy Singham and some other employees of his Chinese-based company, StarStream, exchanged emails which “expose” and establish their attempts to create a narrative that both Kashmir and Arunachal Pradesh were “disputed territories”.
-The FIR also accuses those named in the FIR of conspiring to “disrupt supplies and services” necessary for people in India, funding the farmers’ protests of 2020-21 (against three controversial farm laws brought in by the Narendra Modi government which have now been repealed), discrediting the Indian government’s efforts at containing the Covid pandemic and trying to sabotage the general elections of 2019.Responses from those accused/named in the FIR are awaited. ThePrint will update the article once responses are received.
-Also read: ‘Journalism can’t be prosecuted as terrorism’ — media groups write to CJI on NewsClick raids
-According to the FIR, Navlakha and Purkyastha have known each other since 1991, when they together incorporated a company named Sagarik Process Analyst Pvt. Ltd., and the former has been a shareholder in NewsClick since its inception in 2018.
-The FIR also alleges that Navlakha has been involved in “anti-India activities”, such as “supporting banned Naxal organisations” and Ghulam Nabi Fai, a Kashmiri separatist who had been convicted in the US for being a “paid operative” of Pakistan’s Inter-Services Intelligence (ISI).“Further, it is learnt that Gautam Navlakha who is a shareholder in PPK NewsClick Studio Pvt Ltd since its inception in the year 2018, remained involved in anti-Indian and unlawful activities, such as actively supporting banned Naxal organisations and having anti-national nexus with Gulam Nabi Fai who is an agent of ISI of Pakistan. It is also learnt that Gautam Navlakha is associated with Prabir Purkayastha since 1991 when they incorporated Sagrik Process Analyst Pvt Ltd,” the FIR alleges.
-The FIR goes on claim that there was an establishment of “mutually beneficial nexus” between Indian companies and “inimical” foreign establishments and that these establishments “backed, funded and supported” the farmers’ agitation of 2020-21, which “contributed to the loss of hundreds of crores rupees to the Indian economy” and also disrupted law and order in the country.
-The FIR also alleges that both Purkayastha and Roy Singham, along with another accused identified in the FIR as Vijay Parshad, have been involved in discrediting the efforts of the Indian government in containing the Covid-19 pandemic.
-Purkhayasta has also been accused of trying to sabotage the 2019 parliamentary elections, in partnership with the group People’s Alliance for Democracy and Secularism (PADS). Details of how they tried to allegedly do this are not mentioned in the FIR.The FIR also claims that companies of Chinese origin — Xiaomi and Vivo — incorporated shell companies in India by violating the rules and provisions of Foreign Exchange Management Act (FEMA) and Prevention of Money Laundering Act, 2002 (PMLA) and furthered the conspiracy of running false narratives against India.
-But Purkayastha, Roy Singham, activist Geeta Hariharan, and lawyer Gautam Bhatia, “hatched a conspiracy” to put up a spirited legal fight against cases filed against these companies. Bhatia has been named as a “key person” in this.
-“That Prabir Purkayastha, Neville Roy Singham, Gautam Navlakha, and their known and unknown associates have been involved in continuous unlawful activities which include undermining India’s unity, sovereignty, and territorial integrity. That aforementioned accused have conspired to commit unlawful activities and terrorist acts by aiding and abetting disruption of supplies and services essential for life of community and continued damage and destruction of property through illegal means,” states the FIR.
-It adds: “By inciting disaffection among the people especially farmers towards the democratically elected Govt of India they have been creating divisions and disharmony among different group/classes of people as a part of a larger criminal conspiracy having international ramifications. The accused have employed a web of illegal transactions through illegal and circuitous route using several companies etc. to illegally infuse foreign funds for perpetrating aforementioned acts through conspiracy.”(Edited by Poulomi Banerjee)
-Also read: Headlines say it all—NewsClick coverage shows a deeply divided Indian media</t>
+    <t>INDIA bloc hits rough weather in Bengal, Kerala &amp; Tripura, CPI(M) refuses to join poll strategy panel</t>
+  </si>
+  <si>
+    <t>New Delhi: In developments that reflect strains on the opposition unity, the CPI(M) has decided to maintain distance from a key election strategy group of the INDIA bloc, while the Congress’s Tripura unit has expressed its unwillingness to tie up with the Left parties in any future election in the state.</t>
+  </si>
+  <si>
+    <t>politics</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/india-bloc-hits-rough-weather-in-bengal-kerala-tripura-cpim-refuses-to-join-poll-strategy-panel/1767439/</t>
+  </si>
+  <si>
+    <t>Hindutva activist Chaitra Kundapura under probe for more — ‘anti-Muslim’ rants, ‘insulting Tuluva heroes’</t>
+  </si>
+  <si>
+    <t>Bengaluru: While addressing a public gathering in Karnataka’s Surathkal in September 2021, hardline Hindutva activist and self-proclaimed Sangh leader Chaitra Kundapura said that if “Hindus start to convert Muslim girls, the entire process will just take two days until there will be no burqas left in these households”.</t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>https://theprint.in/india/delhi-police-fir-on-newsclick-alleges-bid-to-sabotage-2019-polls-project-arunachal-as-disputed/1792730/</t>
-  </si>
-  <si>
-    <t>In Churachandpur, anger at CBI over Manipur teen deaths arrests. ‘No one told us’, says suspect’s family</t>
-  </si>
-  <si>
-    <t>Churachandpur, Manipur: Akhup Hao got a frantic phone call Sunday afternoon from his daughter. His son S. Malsawm Haokip, 31, was picked up by the Central Bureau of Investigation (CBI) when he was on way to Churachandpur to meet him.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/in-churachandpur-anger-at-cbi-over-manipur-teen-deaths-arrests-no-one-told-us-says-suspects-family/1777211/</t>
-  </si>
-  <si>
-    <t>NewsClick FIR says Chinese phone-makers set up ‘thousands of shell companies in India to funnel funds’</t>
-  </si>
-  <si>
-    <t>New Delhi: The FIR filed by Delhi Police in the NewsClick case has alleged that “big Chinese telecom companies” like Xiaomi and Vivo have incorporated thousands of shell companies in India to illegally infuse foreign funds to be used in disrupting the sovereignty of India and causing disaffection against the nation.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/newsclick-fir-says-chinese-phone-makers-set-up-thousands-of-shell-companies-in-india-to-funnel-funds/1792881/</t>
-  </si>
-  <si>
-    <t>73% Muslims in Bihar ‘backward’ — state survey sparks debate on caste in Islam, BJP alleges ‘appeasement’</t>
-  </si>
-  <si>
-    <t>New Delhi: The Bihar caste survey released Monday shows that nearly 73 percent of the state’s Muslim population is classified as “backward classes”, or Pasmandas, making them eligible for the benefits of reservation. This has given fresh impetus to the ongoing debate on caste within Islam with former MP Ali Anwar saying it has “demolished the myth” that Muslim identity is a monolith.</t>
-  </si>
-  <si>
-    <t>politics</t>
-  </si>
-  <si>
-    <t>https://theprint.in/politics/73-muslims-in-bihar-backward-state-survey-sparks-debate-on-caste-in-islam-bjp-alleges-appeasement/1792254/</t>
-  </si>
-  <si>
-    <t>Putin praises Modi’s G20 ‘success’, backs India’s push for seat on UN Security Council</t>
-  </si>
-  <si>
-    <t>He also called India a country of great potential, with a large population, a projected GDP growth of over 7 percent, and growing high-tech exports.
-“As for the work of the G20, without any doubt that is the success of the Indian presidency and personally for PM Modi, that was a success. The Indian leadership was able to find…balance, including in the declaration,” said the Russian President while speaking at an event in Sochi, Russia.
-Putin was attending the 20th annual meeting of Moscow-based think tank Valdai International Discussion Club, on from 2 to 5 October. During his opening address at the event, Putin called India a country that acts independently on the global stage but faces risks from the West.
-“I would like to say that the Indian leadership is independent and strongly nationally oriented,” he said. “They (the West) try to portray those who are not willing to blindly follow these Western elite groups as enemies. They have used this approach with various countries, including China, and tried to do this to India in certain situations,” he added.His remarks came on the same day a Russian missile attack struck the village of Hroza in northeastern Ukraine, killing over 50 people.
-The event was attended by 140 experts, politicians and diplomats from 42 countries across Eurasia, Africa, North and South America.
-Also read: Did Garcetti tell team ‘may have to reduce contact with Indian officials’ amid Canada row? Embassy reacts
-While fielding questions from the audience during the event in Sochi, Putin was asked about India’s G20 Presidency and the joint declaration that followed after the G20 Summit in India. He added that PM Modi managed to “de-politicise” the decisions that were adopted at the G20 Summit.Asked about his absence at the BRICS Summit in South Africa and the G20 Summit in India, Putin said: “Why do I need to create some problems for friends during the organisation of these events? We are adults and we understand that if I come, some political campaigns will start which will be aimed at undermining the summit.”
-Last month, the Indian G20 Presidency announced the adoption of the New Delhi Leaders Declaration, despite tensions between the West and Russia over Ukraine.
-During the event, the Russian President also backed India’s push to get a seat on the UN Security Council and praised its economic growth.
-“Certainly, in the UN Security Council, such countries should be represented who are acquiring significant clout in international affairs. Due to their potential, they have an opportunity to contribute to resolving international issues,” he told the audience. “What countries am I talking about? India — 1.5 billion people. Over 7 percent GDP growth. High tech exports are growing exponentially. It is becoming stronger every year under the leadership of PM Modi,” he said.Also read: MEA says Afghan embassy’s closure ‘internal matter’, rejects claim of no diplomatic support from India</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>https://theprint.in/world/putin-praises-modis-g20-success-backs-indias-push-for-seat-on-un-security-council/1792577/</t>
-  </si>
-  <si>
-    <t>RBI keeps repo rate unchanged at 6.5%, has steady growth outlook amid inflationary pressures</t>
-  </si>
-  <si>
-    <t>New Delhi: The Reserve Bank of India’s (RBI) Monetary Policy Committee has decided to keep the benchmark interest rate or repo rate unchanged at 6.5 percent for the fourth consecutive time, RBI governor Shaktikanta Das announced Friday.</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>https://theprint.in/economy/rbi-keeps-repo-rate-unchanged-at-6-5-has-steady-growth-outlook-amid-inflationary-pressures/1792612/</t>
-  </si>
-  <si>
-    <t>Family courts aren’t safe for children. They need waiting rooms, counsellors &amp; Mickey Mouse</t>
-  </si>
-  <si>
-    <t>New Delhi: Six-year-old Rahul jumps off the wooden stairs leading to the judge’s dais. His sister Neha, who is five, stands on top of a wobbly bench. For four years, the family courtroom in Noida has been their personal playground every time their mother’s divorce case comes up for hearing. But without a children’s waiting room in the court, they make do with benches and stairs in place of toys while couples fight and lawyers bicker around them. Their playmates are police personnel, plaintiffs and judges.</t>
+    <t>https://theprint.in/india/hindutva-activist-chaitra-kundapura-under-probe-for-more-anti-muslim-rants-insulting-tuluva-heroes/1767438/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Govt buried key information in footnotes, understated external debt by Rs 2 lakh crore, says CAG </t>
+  </si>
+  <si>
+    <t>New Delhi: The Government of India understated its external debt by as much as Rs 2 lakh crore in fiscal 2021-2022 — running afoul of its own laws — the Comptroller and Auditor General of India (CAG) has said in a report.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/governance/govt-buried-key-information-in-footnotes-understated-external-debt-by-rs-2-lakh-crore-says-cag/1767391/</t>
+  </si>
+  <si>
+    <t>Who decides Pakistan poll dates, president or poll panel? The latest in Pakistan election imbroglio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Delhi: There seems to be no end to the uncertainty over the dates for Pakistan’s next general election. </t>
+  </si>
+  <si>
+    <t>theprint-essential</t>
+  </si>
+  <si>
+    <t>https://theprint.in/theprint-essential/who-decides-pakistan-poll-dates-president-or-poll-panel-the-latest-in-pakistan-election-imbroglio/1766867/</t>
+  </si>
+  <si>
+    <t>Rajasthan BJP’s new rebel: Bent on fighting polls, 85-yr-old MLA slams minister Shekhawat for age barb</t>
+  </si>
+  <si>
+    <t>New Delhi: Six-time BJP MLA Suryakanta Vyas is now the latest ‘rebel’ veteran in Rajasthan to take on the party brass over poll tickets, as she reminded Union minister Gajendra Shekhawat of observing propriety given her decades-long stint in politics.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/rajasthan-bjps-new-rebel-bent-on-fighting-polls-85-yr-old-mla-slams-minister-shekhawat-for-age-barb/1767237/</t>
+  </si>
+  <si>
+    <t>Justin Bieber is Pakistani brand’s new model. Karan Johar, Anil Kapoor too wear Rastah</t>
+  </si>
+  <si>
+    <t>New Delhi: Canadian singer Justin Bieber, Moroccan rapper French Montana and Bollywood stars Karan Johar and Anil Kapoor are united by Pakistan in their sartorial choices. The four of them have been seen out and around town (and even in a movie) wearing clothes designed by the Pakistani label Rastah—the brainchild of three cousins Zain, Ismail, and Adnan Ahmad from Lahore. Bieber is the latest to join the Rastah club.</t>
+  </si>
+  <si>
+    <t>go-to-pakistan</t>
+  </si>
+  <si>
+    <t>https://theprint.in/go-to-pakistan/justin-bieber-is-pakistani-brands-new-model-karan-johar-anil-kapoor-too-wear-rastah/1767417/</t>
+  </si>
+  <si>
+    <t>India must invest more in land forces—victory is measured in terms of territory gained or lost</t>
+  </si>
+  <si>
+    <t>In his book Sapiens, Yuval Noah Harari asserts that humans did not tame land; rather, it is the land that tamed and domesticated humankind. Once crops were sown, a community could no longer follow a nomadic lifestyle. It had to stay put, not only to grow and harvest the crop but also to protect it from marauding animals and rival tribes. Over the centuries, with more and more investments made in land – from huts to high-rises, roads to railways, farms to factories – it has become the centrepiece of all human endeavour. Once these communities developed a sense of identity and control over a geographical space, it also became necessary to defend not only the land, but also one’s identity as a tribe, kingdom or nation. Thus were sown the seeds of conflict, which persist to this day.</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/india-must-invest-more-in-land-forces-victory-is-measured-in-terms-of-territory-gained-or-lost/1765382/</t>
+  </si>
+  <si>
+    <t>Bhanwari Devi was raped for trying to stop 1992 child marriage. ‘I curse her daily,’ says bride</t>
+  </si>
+  <si>
+    <t>Jaipur: She sat on a jute cot in the verandah of her dilapidated house in Bhateri village in Rajasthan, gazing at the backyard, flooded in the rains. The peeling walls, the rusting windows, and the weather-beaten interior of her house mirror how Bhanwari Devi feels in her bones these days — like the autumn of an exhausted feminist.</t>
   </si>
   <si>
     <t>ground-reports</t>
   </si>
   <si>
-    <t>https://theprint.in/ground-reports/family-courts-arent-safe-for-children-they-need-waiting-rooms-counsellors-mickey-mouse/1792516/</t>
-  </si>
-  <si>
-    <t>Bihar census identified the privileged and under-privileged castes. Go national now</t>
-  </si>
-  <si>
-    <t>If the proof of the kheer is in the eating, the first spoonful of caste data from Bihar “census” proves why we need a nationwide caste census. Driven by ‘upper caste’ anxiety over possible increase in reservation for the backward groups, the Indian media has focused on Bihar caste survey’s political motivation and fallout, rather than the data. But the very publication of the data is a fitting response to those who said such an exercise is not feasible.</t>
-  </si>
-  <si>
-    <t>opinion</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/bihar-census-identified-privileged-and-under-privileged-castes-go-national-now/1792241/</t>
-  </si>
-  <si>
-    <t>Deogarh dreams of next hockey star. No turf, no shoes but ‘every house has a player &amp; fan’</t>
-  </si>
-  <si>
-    <t>Deogarh: Sonia Kumari Topno has a dream. Hockey propelled her out of her impoverished village in Odisha’s Deogarh, and now she is sprinting towards her next goal: winning a spot on the Indian women’s team. She is confident because Deogarh hockey dreams have a way of coming true.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/ground-reports/deogarh-dreams-of-next-hockey-star-no-turf-no-shoes-but-every-house-has-a-player-fan/1790128/</t>
-  </si>
-  <si>
-    <t>Narges Mohammadi, jailed Iranian womens’ rights advocate, wins 2023 Nobel Peace Prize</t>
-  </si>
-  <si>
-    <t>Oslo: Narges Mohammadi, a jailed Iranian women’s rights advocate, won the 2023 Nobel Peace Prize on Friday.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/world/jailed-iranian-activist-narges-mohammadi-wins-2023-nobel-peace-prize/1792745/</t>
-  </si>
-  <si>
-    <t>‘False cases to weaken opposition, atmosphere of fear’: Kejriwal on raids by central agencies</t>
-  </si>
-  <si>
-    <t>New Delhi: False cases are being slapped in an attempt to subdue and threaten opposition leaders and parties, and an “atmosphere of fear” has been created, which is not good for the country, Delhi Chief Minister Arvind Kejriwal said here on Friday.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/india/false-cases-being-slapped-to-weaken-opposition-atmosphere-of-fear-created-kejriwal/1792633/</t>
-  </si>
-  <si>
-    <t>ASEAN statement see commitment to eventual elimination of crop burning</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur: Southeast Asian agriculture and forestry ministers have agreed to take collective action to minimise and eventually eliminate crop burning in the region, amid deteriorating air quality and concern about cross-border haze.</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>https://theprint.in/environment/southeast-asian-ministers-commit-to-eventual-elimination-of-crop-burning/1792267/</t>
-  </si>
-  <si>
-    <t>Death toll from Russia missile strike on Ukraine’s Hroza rises to 52</t>
-  </si>
-  <si>
-    <t>Kyiv: The death toll from a Russian missile strike on the village of Hroza in northeastern Ukraine rose to 52 on Friday after another victim died overnight in hospital, the regional governor said.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/world/death-toll-rises-to-52-after-russian-attack-on-ukrainian-village-of-hroza/1792638/</t>
-  </si>
-  <si>
-    <t>Indian students in Canada disenchanted, helpless. New Delhi must spread pre-migration awareness</t>
-  </si>
-  <si>
-    <t>For Indians studying in Canada, the ongoing diplomatic standoff between the two countries is just the latest chapter in a series of relentless challenges. Earlier this year, Canada reportedly threatened to deport around 700 Indian students, mostly from Punjab, over allegations that their admission letters were forged. Apart from being scapegoated for Canada’s housing crisis, Indian students have also been dealing with rising rental costs, homelessness, and reduced employment opportunities. As reports of extremism on Canadian soil mount, there are growing fears that tensions among international students and discrimination against Indian Canadians would also increase.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/indian-students-in-canada-disenchanted-helpless-new-delhi-must-spread-pre-migration-awareness/1792628/</t>
-  </si>
-  <si>
-    <t>Bihar caste survey has done Pasmanda Muslims a big favour. Now India must do the same</t>
-  </si>
-  <si>
-    <t>Nitish Kumar’s strategic release of caste survey in Bihar is a carefully orchestrated political overture. It’s almost like he’s tuning his political instrument months before the crucial assembly polls in Chhattisgarh, Madhya Pradesh, Rajasthan, and Telangana, not to mention the grand spectacle of 2024. The political guru, it seems, is collectively squinting at this move, trying to decipher its implications. It’s not just numbers on paper; the enumeration has a potential of narrative shift. As we watch this political drama unfold, it’s hard not to be intrigued by the nuances, the hidden agendas, and the unspoken alliances.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/bihar-caste-survey-has-done-pasmanda-muslims-a-big-favour-now-india-must-do-the-same/1792461/</t>
-  </si>
-  <si>
-    <t>What turned Teesta into a killer? Here’s proof Sikkim flash floods are a man-made disaster</t>
-  </si>
-  <si>
-    <t>If you are a climate change expert who knows all about the impact of hydroelectric projects in the mountains and elsewhere, then you already know what this is about. But those who know that dams in the Himalayas are a bad idea and that glaciers are melting but are gobsmacked by terms like ‘GLOF’ and other specifics, please read on. While the experts must weigh in, it is time also for common people to stand up and be counted in the fight to prevent what happened in Sikkim on the night of October 3-4, a disaster that is already in the eye of a storm – was it a natural calamity or man-made?</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/what-turned-teesta-into-a-killer-heres-proof-sikkim-flash-floods-are-a-man-made-disaster/1792214/</t>
-  </si>
-  <si>
-    <t>India needn’t recognise Taliban but it shouldn’t let China keep Afghanistan away from it either</t>
-  </si>
-  <si>
-    <t>The closure of the Afghanistan embassy in New Delhi comes at a time when significant changes are occurring in the region surrounding the Indian Ocean and the Indian part of the Indo-Pacific. The successful G20 summit, India’s acclaim from member countries, and the unanimous acceptance of the Delhi Declaration may have unsettled certain forces that are opposed to India’s growth and influence.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/india-neednt-recognise-taliban-but-it-shouldnt-let-china-keep-afghanistan-away-from-it-either/1792192/</t>
-  </si>
-  <si>
-    <t>India’s blood banks are a danger zone. Patients’ trust in them is questionable</t>
-  </si>
-  <si>
-    <t>India’s pharmaceutical prowess has come under fire with some cough syrups reportedly having unacceptable levels of toxic compounds and being linked to deaths of at least 89 children in Gambia and Uzbekistan. While an investigation into the deaths goes on, a glaring example of continuing harm caused by healthcare-related policies lies unaddressed in one of the most unassuming places: Blood banks.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/indias-blood-banks-are-a-danger-zone-patients-trust-in-them-is-questionable/1792191/</t>
-  </si>
-  <si>
-    <t>Bangladesh PM’s daughter adding political colour to WHO election. She has India on her side</t>
-  </si>
-  <si>
-    <t>South East Asia is replete with examples of dynasts—from politics and entertainment to business and judiciary. Sons and daughters, who have either outshone their parents or have been eclipsed by them, have always made headlines in this part of the world.</t>
-  </si>
-  <si>
-    <t>https://theprint.in/opinion/bangladesh-pms-daughter-adding-political-colour-to-who-election-she-has-india-on-her-side/1791318/</t>
-  </si>
-  <si>
-    <t>Vishal Bhardwaj almost didn’t make Khufiya. Irrfan Khan scolded him for it</t>
-  </si>
-  <si>
-    <t>New Delhi: As the Pathans and Jawans of Bollywood storm the world, a slow-burn espionage has everyone on the edge of their seats in anticipation—Vishal Bhardwaj’s spy thriller, Khufiya. But instead of SRK saving India, it’s Tabu, as Research and Analysis Wing operative KM (Krishna Mehra), who is tasked with uncovering the truth and investigating a colleague.</t>
+    <t>https://theprint.in/ground-reports/bhanwari-devi-was-raped-for-trying-to-stop-1992-child-marriage-i-curse-her-daily-says-bride/1765956/</t>
+  </si>
+  <si>
+    <t>Kerala’s indie films are stuck in bureaucratic belly. No theatre fans or OTT buyers</t>
+  </si>
+  <si>
+    <t>All the critics raved about Shruthi Sharanyam’s debut Malayalam indie film B 32 Muthal 44 Vare on breast and body shaming. OTT platforms like Manorama Max and Sony Liv wanted to buy it. The movie ran for a week in theatres in January —and then it vanished. Now, B 32 Muthal 44 Vare languishes in the bureaucratic belly of the Kerala State Film Development Corporation, which produced the movie. It will not let Sharanyam sell it, either. The Kerala government wants to run the movie on its own OTT platform. Except that this streaming initiative has been in the making since 2016.</t>
+  </si>
+  <si>
+    <t>the-fineprint</t>
+  </si>
+  <si>
+    <t>https://theprint.in/the-fineprint/keralas-indie-films-are-stuck-in-bureaucratic-belly-no-theatre-fans-or-ott-buyers/1765086/</t>
+  </si>
+  <si>
+    <t>4 years on, Kashmir is changing. All because of Modi-picked Manoj Sinha’s healing touch</t>
+  </si>
+  <si>
+    <t>Pictures of Prime Minister Narendra Modi getting down from a petals-strewn vehicle to a grand welcome by his colleagues at the Bharatiya Janata Party (BJP) headquarters on 13 September triggered a social media firestorm. Users shared pictures and videos of the G20 success celebrations — along with those of grieving family members and colleagues of three Army and police officers killed by militants early that day at Kokernag in southern Kashmir’s Anantnag district. Modi’s fiery speeches against opposition parties from poll-bound Madhya Pradesh and Chhattisgarh gave his detractors more ammunition.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/politically-correct/4-years-on-kashmir-is-changing-all-because-of-modi-picked-manoj-sinhas-healing-touch/1766788/</t>
+  </si>
+  <si>
+    <t>Agra cop faces rape charges after alleged molestation of teen, thrashed by local villagers</t>
+  </si>
+  <si>
+    <t>Agra: An Agra cop is facing rape charges after he allegedly entered the house of a teenaged girl and molested her Sunday night.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/agra-cop-faces-rape-charges-after-alleged-molestation-of-teen-thrashed-by-local-villagers/1767232/</t>
+  </si>
+  <si>
+    <t>Murdered ex-Armyman’s 10-yr-old saw dad’s abduction in Manipur, gave chase: ‘I couldn’t do anything’</t>
+  </si>
+  <si>
+    <t>Imphal: In Imphal’s Tarung area, a 10-year-old stands guard at the window of his home, clutching a toy — a unicorn soft toy — gifted by his father. His vigilant gaze fixed on the gate, the boy seems to be waiting for someone. Each time a figure approaches, he eagerly calls out to his mother.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/murdered-ex-armymans-10-yr-old-saw-dads-abduction-in-manipur-gave-chase-i-couldnt-do-anything/1766899/</t>
+  </si>
+  <si>
+    <t>India’s first solar mission spacecraft  Aditya L-1 commences collecting scientific data, says ISRO</t>
+  </si>
+  <si>
+    <t>Bengaluru: India’s Aditya-L1 solar mission spacecraft has commenced collecting scientific data to help scientists analyse particles surrounding Earth, ISRO said on Monday.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/indias-aditya-l1-solar-mission-spacecraft-commences-collecting-scientific-data/1766808/</t>
+  </si>
+  <si>
+    <t>It took 40 yrs to find first traces of Ashoka’s Pataliputra. Now, we must find the rest</t>
+  </si>
+  <si>
+    <t>For centuries, the exact location and extent of the ancient city of Pataliputra remained a subject of debate. City after city was built on top of its ruins, but no one could pinpoint where it was. Even though Chinese travellers like Fa Hien heavily documented Pataliputra in their topographical records, it took a careful survey and multiple excavations to verify the gilded details mentioned in these texts.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/it-took-40-yrs-to-find-first-traces-of-ashokas-pataliputra-now-we-must-find-the-rest/1766398/</t>
+  </si>
+  <si>
+    <t>China’s third aircraft carrier is ready for the sea even as defence minister goes missing</t>
+  </si>
+  <si>
+    <t>Chinese Defence Minister Li Shangfu disappears, missing from military meetings, likely under investigation. China’s third aircraft carrier, Fujian, is now ready to enter service. Hong Kong wants residents – and visitors – to get out and party in a new campaign to promote nightlife in the city. Chinascope tracks everything that happened in the country this week – from the missing defence minister to Hong Kong’s quest for fun.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/chinascope/chinas-third-aircraft-carrier-is-ready-for-the-sea-even-as-defence-minister-goes-missing/1766419/</t>
+  </si>
+  <si>
+    <t>Maratha reservation protest isn’t just about quota. It will end dynasties</t>
+  </si>
+  <si>
+    <t>The Maharashtra government now finds itself walking a tightrope as the Maratha community, a significant portion of the Jalna constituency, holds the power to make or break the state’s political landscape. Glaring inequalities have ignited the flames of a formidable Maratha reservation movement.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/maratha-reservation-protest-isnt-just-about-quota-it-will-end-dynasties/1766577/</t>
+  </si>
+  <si>
+    <t>Drug shortage shows Modi’s TB eradication dream needs more than just ambition</t>
+  </si>
+  <si>
+    <t>On 23 August, we received phone calls from colleagues in Mumbai informing us that patients with Drug-Resistant Tuberculosis, or DR-TB, were inching closer to death because they hadn’t received their medication for nearly a month. This, unfortunately, is not a new development as TB drug shortages began last year with the stockout of Rifampicin – a medication used to treat drug-sensitive TB. Linezolid, Clofazimine, and Cycloserine are also facing the same shortages now.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/drug-shortage-shows-modis-tb-eradication-dream-needs-more-than-just-ambition/1765476/</t>
+  </si>
+  <si>
+    <t>Xi’s men are falling off the wall one by one. Even extreme loyalty doesn’t guarantee safety</t>
+  </si>
+  <si>
+    <t>The curtain fell in the old-fashioned way: The state-of-the-art Hawker Siddeley HS-121 Trident jet exploded in the great emptiness of outer Mongolia’s Öndörkhaan desert in 1971. Lin Biao, the revolution-era military hero and Marshal of the People’s Republic of China, who was on the flight with his wife Ye Qun and son Lin Liguo, was declared a traitor hours later. The old marshal, the People’s Republic of China alleged, had sought to flee after trying to assassinate Chairman Mao Zedong.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/xis-men-are-falling-off-the-wall-one-by-one-even-extreme-loyalty-doesnt-guarantee-safety/1765786/</t>
+  </si>
+  <si>
+    <t>Like Alia Bhatt’s ‘What Jhumka’, Chacha Chaudhary was actually a reboot by Diamond Comics</t>
+  </si>
+  <si>
+    <t>The latest blockbuster song What Jhumka from Karan Johar’s Rocky Aur Rani Ki Prem Kahani is a reboot of Jhumka Gira Re from the 1966 film Mera Saya. A blend of nostalgia and improvisation is what makes a remixed song a hit. It seems this formula doesn’t just work for music but also for comic series and cartoon strips. Take, for example, India’s most loved comic book characters, Chacha Chaudhary and Sabu. Created by pioneer cartoonist Pran Kumar Sharma, this feisty pair was first featured in 1971 in Lotpot, a bilingual children’s magazine. That was when a young Narendra Kumar Verma, current chairperson of Diamond Group of Publications, contacted  Pran and persuaded him to republish the series under a new packaging. Promoted through a 360-degree campaign on billboards, radio, and television, the new Chacha Chaudhary version soon became the first-ever Indian cartoon character that attained cult status.</t>
   </si>
   <si>
     <t>feature</t>
   </si>
   <si>
-    <t>https://theprint.in/feature/around-town/vishal-bhardwaj-almost-didnt-make-khufiya-irrfan-khan-scolded-him-for-it/1790835/</t>
+    <t>https://theprint.in/feature/like-alia-bhatts-what-jhumka-chacha-chaudhary-was-actually-a-reboot-by-diamond-comics/1764541/</t>
+  </si>
+  <si>
+    <t>AIADMK breaks alliance with BJP, slams Annamalai — ‘Let’s see if they win more votes than NOTA’</t>
+  </si>
+  <si>
+    <t>Chennai: A simmering tension within the BJP-AIADMK leadership in Tamil Nadu came to the fore Monday, as senior leader D. Jayakumar announced breakup of the alliance and added that any decision would be made only before the next year’s election.</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/aiadmk-breaks-alliance-with-bjp-slams-annamalai-lets-see-if-they-win-more-votes-than-nota/1766979/</t>
   </si>
 </sst>
 </file>
@@ -647,49 +616,49 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -745,49 +714,49 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -801,7 +770,7 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>49</v>
@@ -815,7 +784,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>52</v>
@@ -829,7 +798,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -843,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>58</v>
@@ -857,7 +826,7 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>61</v>
@@ -871,7 +840,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
@@ -885,21 +854,21 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>71</v>
